--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Latent View Analytics Ltd/Pruned_Excel/Semi_Final/Latent View Analytics Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Latent View Analytics Ltd/Pruned_Excel/Semi_Final/Latent View Analytics Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="100">
   <si>
     <t>Balance Sheet of Latent View Analytics(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,31 +62,34 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Latent View Analytics(in Rs. Cr.)</t>
@@ -182,9 +188,6 @@
     <t>Quarterly Results of Latent View Analytics(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -240,21 +243,6 @@
   </si>
   <si>
     <t>Diluted eps.</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -687,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,373 +721,403 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
         <v>0.8</v>
-      </c>
-      <c r="C2">
-        <v>51.93</v>
       </c>
       <c r="D2">
         <v>51.93</v>
       </c>
       <c r="E2">
+        <v>51.93</v>
+      </c>
+      <c r="F2">
         <v>52.73</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3.36</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5.83</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>71.59999999999999</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8.41</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>8.539999999999999</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>20.93</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>50.66</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>71.59999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>0.8</v>
-      </c>
-      <c r="C3">
-        <v>98.31999999999999</v>
       </c>
       <c r="D3">
         <v>98.31999999999999</v>
       </c>
       <c r="E3">
+        <v>98.31999999999999</v>
+      </c>
+      <c r="F3">
         <v>101.26</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>12.61</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>14.73</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>119.29</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6.19</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>6.6</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>28.44</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>90.84999999999999</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>119.29</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="C4">
-        <v>154.07</v>
       </c>
       <c r="D4">
         <v>154.07</v>
       </c>
       <c r="E4">
+        <v>154.07</v>
+      </c>
+      <c r="F4">
         <v>157.04</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.15</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>7.82</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>167.82</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4.15</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4.89</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>36.12</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>131.7</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>167.82</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="C5">
-        <v>202.02</v>
       </c>
       <c r="D5">
         <v>202.02</v>
       </c>
       <c r="E5">
+        <v>202.02</v>
+      </c>
+      <c r="F5">
         <v>205.2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.83</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4.75</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>212.78</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3.25</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3.66</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>38.02</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>174.76</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>212.78</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="C6">
-        <v>254.18</v>
       </c>
       <c r="D6">
         <v>254.18</v>
       </c>
       <c r="E6">
+        <v>254.18</v>
+      </c>
+      <c r="F6">
         <v>257.15</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>8.1</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>9.91</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>293.21</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>32.33</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>32.52</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>90.63</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>202.58</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>293.21</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="C7">
-        <v>323.12</v>
       </c>
       <c r="D7">
         <v>323.12</v>
       </c>
       <c r="E7">
+        <v>323.12</v>
+      </c>
+      <c r="F7">
         <v>325.51</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>12.05</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>13.18</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>362.18</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>28.1</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>28.12</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>151.44</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>210.75</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>362.18</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
         <v>20.04</v>
-      </c>
-      <c r="C8">
-        <v>835.5700000000001</v>
       </c>
       <c r="D8">
         <v>835.5700000000001</v>
       </c>
       <c r="E8">
+        <v>835.5700000000001</v>
+      </c>
+      <c r="F8">
         <v>855.61</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>18.59</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>20.82</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>896.6799999999999</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>26.72</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>26.74</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>191.17</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>705.51</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>896.6799999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
         <v>20.49</v>
-      </c>
-      <c r="C9">
-        <v>963.21</v>
       </c>
       <c r="D9">
         <v>963.21</v>
       </c>
       <c r="E9">
+        <v>963.21</v>
+      </c>
+      <c r="F9">
         <v>983.7</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>11.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>13.95</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1014.44</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>21.14</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>21.15</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>365.45</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>648.99</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1014.44</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
         <v>20.59</v>
-      </c>
-      <c r="C10">
-        <v>1081.33</v>
       </c>
       <c r="D10">
         <v>1081.33</v>
       </c>
       <c r="E10">
+        <v>1081.33</v>
+      </c>
+      <c r="F10">
         <v>1101.92</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>14.8</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>19.89</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1142.77</v>
-      </c>
-      <c r="I10">
-        <v>24.66</v>
       </c>
       <c r="J10">
         <v>24.66</v>
       </c>
       <c r="K10">
+        <v>24.66</v>
+      </c>
+      <c r="L10">
         <v>457.49</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>685.28</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1142.77</v>
       </c>
     </row>
@@ -1110,299 +1128,329 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>19.61</v>
+      </c>
+      <c r="D2">
+        <v>17.74</v>
+      </c>
+      <c r="E2">
+        <v>-11.76</v>
+      </c>
+      <c r="F2">
+        <v>-0.75</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5.22</v>
+      </c>
+      <c r="I2">
+        <v>4.82</v>
+      </c>
+      <c r="J2">
+        <v>10.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>46.27</v>
+      </c>
+      <c r="D3">
+        <v>48.97</v>
+      </c>
+      <c r="E3">
+        <v>-51.06</v>
+      </c>
+      <c r="F3">
+        <v>-2.1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-4.18</v>
+      </c>
+      <c r="I3">
+        <v>10.04</v>
+      </c>
+      <c r="J3">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>56.67</v>
+      </c>
+      <c r="D4">
+        <v>16.35</v>
+      </c>
+      <c r="E4">
+        <v>-14.88</v>
+      </c>
+      <c r="F4">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.53</v>
+      </c>
+      <c r="I4">
+        <v>5.86</v>
+      </c>
+      <c r="J4">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>55.12</v>
+      </c>
+      <c r="D5">
+        <v>42.47</v>
+      </c>
+      <c r="E5">
+        <v>-46.82</v>
+      </c>
+      <c r="F5">
+        <v>-0.78</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-5.14</v>
+      </c>
+      <c r="I5">
+        <v>6.38</v>
+      </c>
+      <c r="J5">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>61.36</v>
+      </c>
+      <c r="D6">
+        <v>49.92</v>
+      </c>
+      <c r="E6">
+        <v>-33.5</v>
+      </c>
+      <c r="F6">
+        <v>-4.82</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>11.61</v>
+      </c>
+      <c r="I6">
+        <v>1.25</v>
+      </c>
+      <c r="J6">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>84.42</v>
+      </c>
+      <c r="D7">
+        <v>47.84</v>
+      </c>
+      <c r="E7">
+        <v>-45.14</v>
+      </c>
+      <c r="F7">
+        <v>-4.93</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-2.23</v>
+      </c>
+      <c r="I7">
+        <v>12.85</v>
+      </c>
+      <c r="J7">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>96.52</v>
+      </c>
+      <c r="D8">
+        <v>66.54000000000001</v>
+      </c>
+      <c r="E8">
+        <v>-489.46</v>
+      </c>
+      <c r="F8">
+        <v>449.53</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>26.61</v>
+      </c>
+      <c r="I8">
+        <v>10.63</v>
+      </c>
+      <c r="J8">
+        <v>37.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>149.57</v>
+      </c>
+      <c r="D9">
+        <v>70.81</v>
+      </c>
+      <c r="E9">
+        <v>-97.45</v>
+      </c>
+      <c r="F9">
+        <v>-3.42</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-30.06</v>
+      </c>
+      <c r="I9">
+        <v>37.24</v>
+      </c>
+      <c r="J9">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>19.61</v>
-      </c>
-      <c r="C2">
-        <v>17.74</v>
-      </c>
-      <c r="D2">
-        <v>-11.76</v>
-      </c>
-      <c r="E2">
-        <v>-0.75</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>5.22</v>
-      </c>
-      <c r="H2">
-        <v>4.82</v>
-      </c>
-      <c r="I2">
-        <v>10.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>46.27</v>
-      </c>
-      <c r="C3">
-        <v>48.97</v>
-      </c>
-      <c r="D3">
-        <v>-51.06</v>
-      </c>
-      <c r="E3">
-        <v>-2.1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>-4.18</v>
-      </c>
-      <c r="H3">
-        <v>10.04</v>
-      </c>
-      <c r="I3">
-        <v>5.86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>56.67</v>
-      </c>
-      <c r="C4">
-        <v>16.35</v>
-      </c>
-      <c r="D4">
-        <v>-14.88</v>
-      </c>
-      <c r="E4">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.53</v>
-      </c>
-      <c r="H4">
-        <v>5.86</v>
-      </c>
-      <c r="I4">
-        <v>6.38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>55.12</v>
-      </c>
-      <c r="C5">
-        <v>42.47</v>
-      </c>
-      <c r="D5">
-        <v>-46.82</v>
-      </c>
-      <c r="E5">
-        <v>-0.78</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-5.14</v>
-      </c>
-      <c r="H5">
-        <v>6.38</v>
-      </c>
-      <c r="I5">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>61.36</v>
-      </c>
-      <c r="C6">
-        <v>49.92</v>
-      </c>
-      <c r="D6">
-        <v>-33.5</v>
-      </c>
-      <c r="E6">
-        <v>-4.82</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>11.61</v>
-      </c>
-      <c r="H6">
-        <v>1.25</v>
-      </c>
-      <c r="I6">
-        <v>12.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>84.42</v>
-      </c>
-      <c r="C7">
-        <v>47.84</v>
-      </c>
-      <c r="D7">
-        <v>-45.14</v>
-      </c>
-      <c r="E7">
-        <v>-4.93</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>-2.23</v>
-      </c>
-      <c r="H7">
-        <v>12.85</v>
-      </c>
-      <c r="I7">
-        <v>10.63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>96.52</v>
-      </c>
-      <c r="C8">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="D8">
-        <v>-489.46</v>
-      </c>
-      <c r="E8">
-        <v>449.53</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>26.61</v>
-      </c>
-      <c r="H8">
-        <v>10.63</v>
-      </c>
-      <c r="I8">
-        <v>37.24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>149.57</v>
-      </c>
-      <c r="C9">
-        <v>70.81</v>
-      </c>
-      <c r="D9">
-        <v>-97.45</v>
-      </c>
-      <c r="E9">
-        <v>-3.42</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>-30.06</v>
-      </c>
-      <c r="H9">
-        <v>37.24</v>
-      </c>
-      <c r="I9">
+      <c r="C10">
+        <v>153.94</v>
+      </c>
+      <c r="D10">
+        <v>27.24</v>
+      </c>
+      <c r="E10">
+        <v>12.32</v>
+      </c>
+      <c r="F10">
+        <v>-0.5</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>39.06</v>
+      </c>
+      <c r="I10">
         <v>7.18</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>153.94</v>
-      </c>
-      <c r="C10">
-        <v>27.24</v>
-      </c>
-      <c r="D10">
-        <v>12.32</v>
-      </c>
-      <c r="E10">
-        <v>-0.5</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>39.06</v>
-      </c>
-      <c r="H10">
-        <v>7.18</v>
-      </c>
-      <c r="I10">
+      <c r="J10">
         <v>46.24</v>
       </c>
     </row>
@@ -1413,86 +1461,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>53</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>78.41</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
       <c r="C2">
         <v>78.41</v>
@@ -1501,46 +1552,46 @@
         <v>78.41</v>
       </c>
       <c r="E2">
+        <v>78.41</v>
+      </c>
+      <c r="F2">
         <v>1.49</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>79.90000000000001</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>38.5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2.57</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>18.62</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>60.29</v>
-      </c>
-      <c r="M2">
-        <v>19.61</v>
       </c>
       <c r="N2">
         <v>19.61</v>
       </c>
       <c r="O2">
+        <v>19.61</v>
+      </c>
+      <c r="P2">
         <v>0.86</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1.55</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2.41</v>
-      </c>
-      <c r="R2">
-        <v>17.2</v>
       </c>
       <c r="S2">
         <v>17.2</v>
@@ -1549,18 +1600,21 @@
         <v>17.2</v>
       </c>
       <c r="U2">
-        <v>21.5</v>
+        <v>17.2</v>
       </c>
       <c r="V2">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>105.45</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
       <c r="C3">
         <v>105.45</v>
@@ -1569,46 +1623,46 @@
         <v>105.45</v>
       </c>
       <c r="E3">
+        <v>105.45</v>
+      </c>
+      <c r="F3">
         <v>0.97</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>106.42</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>38.7</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.43</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2.8</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>18.2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>60.14</v>
-      </c>
-      <c r="M3">
-        <v>46.27</v>
       </c>
       <c r="N3">
         <v>46.27</v>
       </c>
       <c r="O3">
+        <v>46.27</v>
+      </c>
+      <c r="P3">
         <v>0.27</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-0.38</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-0.11</v>
-      </c>
-      <c r="R3">
-        <v>46.39</v>
       </c>
       <c r="S3">
         <v>46.39</v>
@@ -1617,18 +1671,21 @@
         <v>46.39</v>
       </c>
       <c r="U3">
-        <v>57.99</v>
+        <v>46.39</v>
       </c>
       <c r="V3">
         <v>57.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>57.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>105.18</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
       </c>
       <c r="C4">
         <v>105.18</v>
@@ -1637,46 +1694,46 @@
         <v>105.18</v>
       </c>
       <c r="E4">
+        <v>105.18</v>
+      </c>
+      <c r="F4">
         <v>5.96</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>111.14</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>36.04</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.57</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2.54</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>15.31</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>54.47</v>
-      </c>
-      <c r="M4">
-        <v>56.67</v>
       </c>
       <c r="N4">
         <v>56.67</v>
       </c>
       <c r="O4">
+        <v>56.67</v>
+      </c>
+      <c r="P4">
         <v>2.88</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-0.54</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2.34</v>
-      </c>
-      <c r="R4">
-        <v>54.32</v>
       </c>
       <c r="S4">
         <v>54.32</v>
@@ -1685,18 +1742,21 @@
         <v>54.32</v>
       </c>
       <c r="U4">
-        <v>67.55</v>
+        <v>54.32</v>
       </c>
       <c r="V4">
         <v>67.55</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>67.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>115.35</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
       </c>
       <c r="C5">
         <v>115.35</v>
@@ -1705,46 +1765,46 @@
         <v>115.35</v>
       </c>
       <c r="E5">
+        <v>115.35</v>
+      </c>
+      <c r="F5">
         <v>11.02</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>126.37</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>51.28</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2.51</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>17.39</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>71.25</v>
-      </c>
-      <c r="M5">
-        <v>55.12</v>
       </c>
       <c r="N5">
         <v>55.12</v>
       </c>
       <c r="O5">
+        <v>55.12</v>
+      </c>
+      <c r="P5">
         <v>7.46</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-0.17</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>7.29</v>
-      </c>
-      <c r="R5">
-        <v>47.83</v>
       </c>
       <c r="S5">
         <v>47.83</v>
@@ -1753,18 +1813,21 @@
         <v>47.83</v>
       </c>
       <c r="U5">
-        <v>59.21</v>
+        <v>47.83</v>
       </c>
       <c r="V5">
         <v>59.21</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>59.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>124.51</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
       <c r="C6">
         <v>124.51</v>
@@ -1773,46 +1836,46 @@
         <v>124.51</v>
       </c>
       <c r="E6">
+        <v>124.51</v>
+      </c>
+      <c r="F6">
         <v>16.37</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>140.87</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>58.09</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2.81</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5.74</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>12.87</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>79.51000000000001</v>
-      </c>
-      <c r="M6">
-        <v>61.36</v>
       </c>
       <c r="N6">
         <v>61.36</v>
       </c>
       <c r="O6">
+        <v>61.36</v>
+      </c>
+      <c r="P6">
         <v>11</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-0.71</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>10.29</v>
-      </c>
-      <c r="R6">
-        <v>51.07</v>
       </c>
       <c r="S6">
         <v>51.07</v>
@@ -1821,18 +1884,21 @@
         <v>51.07</v>
       </c>
       <c r="U6">
+        <v>51.07</v>
+      </c>
+      <c r="V6">
         <v>3</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>2.81</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>143.36</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7">
         <v>143.36</v>
@@ -1841,46 +1907,46 @@
         <v>143.36</v>
       </c>
       <c r="E7">
+        <v>143.36</v>
+      </c>
+      <c r="F7">
         <v>20.81</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>164.18</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>60.69</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2.54</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5.95</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>10.57</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>79.76000000000001</v>
-      </c>
-      <c r="M7">
-        <v>84.42</v>
       </c>
       <c r="N7">
         <v>84.42</v>
       </c>
       <c r="O7">
+        <v>84.42</v>
+      </c>
+      <c r="P7">
         <v>16.87</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-0.36</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>16.5</v>
-      </c>
-      <c r="R7">
-        <v>67.92</v>
       </c>
       <c r="S7">
         <v>67.92</v>
@@ -1889,18 +1955,21 @@
         <v>67.92</v>
       </c>
       <c r="U7">
+        <v>67.92</v>
+      </c>
+      <c r="V7">
         <v>3.98</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>3.79</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>206.76</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
       </c>
       <c r="C8">
         <v>206.76</v>
@@ -1909,46 +1978,46 @@
         <v>206.76</v>
       </c>
       <c r="E8">
+        <v>206.76</v>
+      </c>
+      <c r="F8">
         <v>21.24</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>228</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>102.65</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2.9</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>7.04</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>18.9</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>131.48</v>
-      </c>
-      <c r="M8">
-        <v>96.52</v>
       </c>
       <c r="N8">
         <v>96.52</v>
       </c>
       <c r="O8">
+        <v>96.52</v>
+      </c>
+      <c r="P8">
         <v>20.11</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.53</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>20.64</v>
-      </c>
-      <c r="R8">
-        <v>75.89</v>
       </c>
       <c r="S8">
         <v>75.89</v>
@@ -1957,18 +2026,21 @@
         <v>75.89</v>
       </c>
       <c r="U8">
+        <v>75.89</v>
+      </c>
+      <c r="V8">
         <v>4.15</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>4.01</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>263.95</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
       </c>
       <c r="C9">
         <v>263.95</v>
@@ -1977,46 +2049,46 @@
         <v>263.95</v>
       </c>
       <c r="E9">
+        <v>263.95</v>
+      </c>
+      <c r="F9">
         <v>57.22</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>321.17</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>134.38</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2.61</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>7.42</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>27.19</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>171.6</v>
-      </c>
-      <c r="M9">
-        <v>149.57</v>
       </c>
       <c r="N9">
         <v>149.57</v>
       </c>
       <c r="O9">
+        <v>149.57</v>
+      </c>
+      <c r="P9">
         <v>32.81</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-0.48</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>32.33</v>
-      </c>
-      <c r="R9">
-        <v>117.24</v>
       </c>
       <c r="S9">
         <v>117.24</v>
@@ -2025,18 +2097,21 @@
         <v>117.24</v>
       </c>
       <c r="U9">
+        <v>117.24</v>
+      </c>
+      <c r="V9">
         <v>5.82</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>5.75</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>291.52</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
       <c r="C10">
         <v>291.52</v>
@@ -2045,46 +2120,46 @@
         <v>291.52</v>
       </c>
       <c r="E10">
+        <v>291.52</v>
+      </c>
+      <c r="F10">
         <v>69.22</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>360.73</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>159.71</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3.04</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>8.09</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>35.96</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>206.79</v>
-      </c>
-      <c r="M10">
-        <v>153.94</v>
       </c>
       <c r="N10">
         <v>153.94</v>
       </c>
       <c r="O10">
+        <v>153.94</v>
+      </c>
+      <c r="P10">
         <v>39.96</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.71</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>40.67</v>
-      </c>
-      <c r="R10">
-        <v>113.27</v>
       </c>
       <c r="S10">
         <v>113.27</v>
@@ -2093,9 +2168,12 @@
         <v>113.27</v>
       </c>
       <c r="U10">
+        <v>113.27</v>
+      </c>
+      <c r="V10">
         <v>5.52</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>5.48</v>
       </c>
     </row>
@@ -2114,84 +2192,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
       </c>
       <c r="D2">
         <v>43.25</v>
@@ -2256,13 +2334,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
         <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
       </c>
       <c r="D3">
         <v>36.29</v>
@@ -2327,13 +2405,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
       </c>
       <c r="D4">
         <v>45.09</v>
@@ -2398,13 +2476,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
       </c>
       <c r="D5">
         <v>58.67</v>
@@ -2469,13 +2547,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
       </c>
       <c r="D6">
         <v>66.70999999999999</v>
@@ -2540,13 +2618,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
       </c>
       <c r="D7">
         <v>60.91</v>
@@ -2611,13 +2689,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
       </c>
       <c r="D8">
         <v>64.98999999999999</v>
@@ -2682,13 +2760,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
       </c>
       <c r="D9">
         <v>68.45999999999999</v>
@@ -2753,13 +2831,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
       </c>
       <c r="D10">
         <v>69.59999999999999</v>
@@ -2824,13 +2902,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
       </c>
       <c r="D11">
         <v>68.90000000000001</v>
@@ -2895,13 +2973,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
       </c>
       <c r="D12">
         <v>71.77</v>
@@ -2966,13 +3044,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>85</v>
       </c>
       <c r="D13">
         <v>73.81999999999999</v>
@@ -3037,13 +3115,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
       </c>
       <c r="D14">
         <v>77.03</v>
@@ -3108,13 +3186,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
       </c>
       <c r="D15">
         <v>78.95</v>
@@ -3179,13 +3257,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
         <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
       </c>
       <c r="D16">
         <v>82.48999999999999</v>
@@ -3255,111 +3333,114 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
         <v>98.01000000000001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>28.47</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>25.27</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>24.51</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>21.5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>29.05</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>25.77</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>25.01</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>21.93</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>32.62</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>24.02</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.05</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
@@ -3372,50 +3453,53 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>131.81</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>61.89</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>58.39</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>57.84</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>57.99</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>46.95</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>44.29</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>43.88</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>43.99</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>45.81</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>38.88</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.01</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
@@ -3428,47 +3512,50 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>130.23</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>74.01000000000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>70.87</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>70.16</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>67.26000000000001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>56.83</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>54.42</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>53.87</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>51.64</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>34.59</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>32.37</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
         <v>0</v>
       </c>
@@ -3484,47 +3571,50 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
         <v>142.76</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>71.41</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>68.31</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>68.20999999999999</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>59.19</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>50.02</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>47.84</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>47.78</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>41.46</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>23.3</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>22.47</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -3540,47 +3630,50 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
         <v>153.52</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>86.2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>79.13</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>75.66</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>62.97</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>56.15</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>51.54</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>49.28</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>41.01</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>19.86</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>17.41</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
@@ -3596,47 +3689,50 @@
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>176.12</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>114.15</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>106.83</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>103.71</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>83.43000000000001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>64.81</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>60.65</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>58.88</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>47.37</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>20.86</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>18.75</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
         <v>0</v>
       </c>
@@ -3652,47 +3748,50 @@
       <c r="R7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
         <v>10.32</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5.31</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4.96</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4.82</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3.79</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>51.48</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>48.08</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>46.68</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>36.7</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>8.859999999999999</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>8.460000000000001</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -3703,52 +3802,55 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>7976.19</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>74.92</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
         <v>12.88</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>7.79</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7.43</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>7.3</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5.72</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>60.46</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>57.65</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>56.66</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>44.41</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>11.91</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>11.55</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
@@ -3759,52 +3861,55 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>6227.4</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>39.02</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
         <v>14.16</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>8.02</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>7.62</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>7.48</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>5.5</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>56.62</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>53.84</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>52.8</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>38.85</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>10.27</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>9.91</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
         <v>0</v>
       </c>
@@ -3815,9 +3920,12 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>10315.3</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>62.49</v>
       </c>
     </row>
